--- a/clases de equivalencia.xlsx
+++ b/clases de equivalencia.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/UNED/3ºCurso/2ºCuatrimestre/Pruebas de Software/PEC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F59B70-9C6B-044E-A686-CB8F0C18CF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3F4A3-7388-7147-9741-0A75FA7C3C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A1886EA5-EDC6-E543-B7F8-9280F93503CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$F$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -389,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,9 +449,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FCBD0A-7A2C-2348-8883-BFC48917E249}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="4" width="29.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -948,50 +948,16 @@
       <c r="B12" s="19"/>
       <c r="C12" s="16"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/clases de equivalencia.xlsx
+++ b/clases de equivalencia.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/UNED/3ºCurso/2ºCuatrimestre/Pruebas de Software/PEC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3F4A3-7388-7147-9741-0A75FA7C3C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDF3676-DD41-D34F-ABCF-85A48DD0BDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A1886EA5-EDC6-E543-B7F8-9280F93503CC}"/>
+    <workbookView xWindow="-37240" yWindow="-400" windowWidth="30240" windowHeight="17860" xr2:uid="{A1886EA5-EDC6-E543-B7F8-9280F93503CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Variable</t>
   </si>
@@ -59,105 +59,100 @@
     <t>test</t>
   </si>
   <si>
-    <t>Mochila</t>
-  </si>
-  <si>
-    <t>capacidad = 8
-articulos = [(10, 6), (2, 2), (1, 1), (10, 3), (5, 4)]</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>capacidad = 0
-articulos = [(10, 6), (2, 2), (1, 1), (10, 3), (5, 4)]</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>capacidad = none
-articulos = [(10, 6), (2, 2), (1, 1), (10, 3), (5, 4)]</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>capacidad = -1
-articulos = [(10, 6), (2, 2), (1, 1), (10, 3), (5, 4)]</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>capacidad &gt; 0
-artículos = (valor &gt;= 0, peso &gt; 0)</t>
-  </si>
-  <si>
-    <t>capacidad = 0
-artículos = (valor &gt;= 0, peso &gt; 0)</t>
-  </si>
-  <si>
-    <t>capacidad sin especificar
-artículos = (valor &gt;= 0, peso &gt; 0)</t>
-  </si>
-  <si>
-    <t>capacidad &lt; 0
-artículos = (valor &gt;= 0, peso &gt; 0)</t>
-  </si>
-  <si>
-    <t>capacidad &gt; 0
-artículos = (valor &lt; 0, peso &gt; 0)</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>capacidad &gt; 0
-artículos = (valor &gt;= 0, peso &lt;= 0)</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>capacidad = 8
-articulos = [(1, 1), (2, 2), (5, 4), (10, 3), (10, 6)]</t>
-  </si>
-  <si>
-    <t>capacidad = 8
-articulos = []</t>
-  </si>
-  <si>
-    <t>capacidad &gt; 0
-artículos = []</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>capacidad = 8
-articulos = [(-1, 6)]</t>
-  </si>
-  <si>
-    <t>capacidad = 8
-articulos = [(10, -3)]</t>
-  </si>
-  <si>
-    <t>capacidad = 8
-articulos = [(10, 0)]</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>capacidad = 20
-articulos = [(1, 1), (2, 2), (5, 4), (10, 3), (10, 6)]</t>
-  </si>
-  <si>
-    <t>M10</t>
+    <t>capacidad mochila (C)</t>
+  </si>
+  <si>
+    <t>numero de artículos (N)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>C &lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>N &lt; 0</t>
+  </si>
+  <si>
+    <t>peso artículo (P)</t>
+  </si>
+  <si>
+    <t>valor artículo (V)</t>
+  </si>
+  <si>
+    <t>0 &lt; P</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P &lt;= 0</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>0 &lt;= V</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V &gt; 0</t>
+  </si>
+  <si>
+    <t>random(1, 10)</t>
+  </si>
+  <si>
+    <t>random(0, 10)</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>0 &lt; N</t>
+  </si>
+  <si>
+    <t>V = 0</t>
+  </si>
+  <si>
+    <t>N = 0</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>random(1, 20)</t>
+  </si>
+  <si>
+    <t>random(1, 5)</t>
+  </si>
+  <si>
+    <t>C = 0</t>
+  </si>
+  <si>
+    <t>0 &lt; C</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
 </sst>
 </file>
@@ -397,19 +392,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,20 +428,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,20 +786,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FCBD0A-7A2C-2348-8883-BFC48917E249}">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F12"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="4" width="29.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -813,148 +814,187 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="18"/>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="13" t="s">
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-3</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="10" t="s">
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
